--- a/flaskWeb/ysc.xlsx
+++ b/flaskWeb/ysc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10285\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shilzhan\mygithub\mem\flaskWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AF2841-F6F4-432B-986E-5BD4F98FE423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CF1CFF-22DA-4B7C-A819-AE2D91521C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="650" yWindow="1660" windowWidth="23440" windowHeight="13460" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接收装置" sheetId="1" r:id="rId1"/>
@@ -1225,14 +1225,14 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="9" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>5</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="9" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>5</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="9" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="9" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>5</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="9" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>5</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="9" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>5</v>
       </c>
@@ -1676,13 +1676,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="31.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1986,13 +1986,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2012,7 +2012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>62</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>62</v>
       </c>
@@ -2158,15 +2158,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2186,7 +2188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -2206,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -2226,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
@@ -2246,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -2266,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
@@ -2286,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -2306,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>65</v>
       </c>
@@ -2326,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>65</v>
       </c>
@@ -2346,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>65</v>
       </c>
@@ -2366,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
@@ -2386,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
@@ -2406,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -2426,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
@@ -2446,7 +2448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
@@ -2466,7 +2468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>68</v>
       </c>
@@ -2486,7 +2488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>68</v>
       </c>
@@ -2509,6 +2511,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2518,13 +2521,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2544,7 +2547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -2561,7 +2564,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
@@ -2578,7 +2581,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
@@ -2612,7 +2615,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>69</v>
       </c>
@@ -2663,7 +2666,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>69</v>
       </c>
@@ -2697,7 +2700,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>69</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
@@ -2731,7 +2734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
@@ -2760,13 +2763,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2786,7 +2789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>78</v>
       </c>
@@ -2820,7 +2823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>78</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2850,13 +2853,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2876,7 +2879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
@@ -2916,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -2936,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
@@ -2956,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
@@ -2976,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>79</v>
       </c>
@@ -2996,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>79</v>
       </c>
@@ -3016,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
@@ -3036,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
@@ -3056,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>79</v>
       </c>
@@ -3076,7 +3079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>79</v>
       </c>
@@ -3096,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>79</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>82</v>
       </c>
@@ -3136,7 +3139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -3156,7 +3159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
@@ -3176,7 +3179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -3216,7 +3219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
@@ -3248,13 +3251,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3556,17 +3559,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="31.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3611,13 +3614,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="34.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="34.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4377,14 +4380,14 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4407,7 +4410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -4427,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -4447,7 +4450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -4467,7 +4470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -4487,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -4507,7 +4510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -4527,7 +4530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -4547,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -4567,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -4839,13 +4842,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4979,13 +4982,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5699,13 +5702,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6297,13 +6300,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6386,13 +6389,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="31.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6412,7 +6415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -6429,7 +6432,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -6446,7 +6449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
@@ -6463,7 +6466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>56</v>
       </c>
@@ -6480,7 +6483,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -6497,7 +6500,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>56</v>
       </c>
@@ -6514,7 +6517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
@@ -6531,7 +6534,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>56</v>
       </c>
@@ -6561,13 +6564,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="31.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6727,4 +6730,10 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>